--- a/REGULAR/OJT/NEW DONE/MANALO CYNTHIA.xlsx
+++ b/REGULAR/OJT/NEW DONE/MANALO CYNTHIA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE6B7B4-B8CF-4D98-8108-3F0420BD41B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="277">
   <si>
     <t>PERIOD</t>
   </si>
@@ -856,12 +855,21 @@
   </si>
   <si>
     <t>TOTAL LEAVE BALANCE</t>
+  </si>
+  <si>
+    <t>SL(10-0-0)</t>
+  </si>
+  <si>
+    <t>5/1-15/2023</t>
+  </si>
+  <si>
+    <t>4/20,24-28/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1530,7 +1538,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1547,25 +1555,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K440" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K441" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1872,34 +1880,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K440"/>
+  <dimension ref="A2:K441"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A386"/>
+      <pane ySplit="3690" topLeftCell="A386" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="C397" sqref="C397"/>
+      <selection pane="bottomLeft" activeCell="B399" sqref="B399"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1920,7 +1928,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1940,7 +1948,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1962,7 +1970,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1970,7 +1978,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1983,7 +1991,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -2000,7 +2008,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2035,7 +2043,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2054,12 +2062,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>154.125</v>
+        <v>138.125</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>73</v>
       </c>
@@ -2081,7 +2089,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>35674</v>
       </c>
@@ -2103,7 +2111,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>35704</v>
       </c>
@@ -2123,7 +2131,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>35735</v>
       </c>
@@ -2143,7 +2151,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>35765</v>
       </c>
@@ -2163,7 +2171,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="48" t="s">
         <v>74</v>
       </c>
@@ -2185,7 +2193,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>35796</v>
       </c>
@@ -2205,7 +2213,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>35827</v>
       </c>
@@ -2225,7 +2233,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>35855</v>
       </c>
@@ -2245,7 +2253,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>35886</v>
       </c>
@@ -2265,7 +2273,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>35916</v>
       </c>
@@ -2291,7 +2299,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>35947</v>
       </c>
@@ -2311,7 +2319,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>35977</v>
       </c>
@@ -2331,7 +2339,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>36008</v>
       </c>
@@ -2351,7 +2359,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>36039</v>
       </c>
@@ -2377,7 +2385,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>36069</v>
       </c>
@@ -2397,7 +2405,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>36100</v>
       </c>
@@ -2423,7 +2431,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>36130</v>
       </c>
@@ -2447,7 +2455,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="48" t="s">
         <v>75</v>
       </c>
@@ -2469,7 +2477,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>36161</v>
       </c>
@@ -2495,7 +2503,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>36192</v>
       </c>
@@ -2515,7 +2523,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>36220</v>
       </c>
@@ -2535,7 +2543,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>36251</v>
       </c>
@@ -2561,7 +2569,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>36281</v>
       </c>
@@ -2585,7 +2593,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
       <c r="B34" s="20" t="s">
         <v>104</v>
@@ -2607,7 +2615,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>36312</v>
       </c>
@@ -2627,7 +2635,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>36342</v>
       </c>
@@ -2651,7 +2659,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40"/>
       <c r="B37" s="20" t="s">
         <v>69</v>
@@ -2673,7 +2681,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>36373</v>
       </c>
@@ -2699,7 +2707,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
         <v>102</v>
@@ -2721,7 +2729,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>36404</v>
       </c>
@@ -2741,7 +2749,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>36434</v>
       </c>
@@ -2767,7 +2775,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>36465</v>
       </c>
@@ -2791,7 +2799,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>36495</v>
       </c>
@@ -2815,7 +2823,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="48" t="s">
         <v>76</v>
       </c>
@@ -2837,7 +2845,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>36526</v>
       </c>
@@ -2861,7 +2869,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>116</v>
@@ -2881,7 +2889,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>36557</v>
       </c>
@@ -2905,7 +2913,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>36586</v>
       </c>
@@ -2929,7 +2937,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>36617</v>
       </c>
@@ -2949,7 +2957,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>36647</v>
       </c>
@@ -2975,7 +2983,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>36678</v>
       </c>
@@ -2995,7 +3003,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>36708</v>
       </c>
@@ -3021,7 +3029,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>36739</v>
       </c>
@@ -3041,7 +3049,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>36770</v>
       </c>
@@ -3065,7 +3073,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>36800</v>
       </c>
@@ -3089,7 +3097,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>36831</v>
       </c>
@@ -3109,7 +3117,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>36861</v>
       </c>
@@ -3133,7 +3141,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="48" t="s">
         <v>77</v>
       </c>
@@ -3155,7 +3163,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>36892</v>
       </c>
@@ -3181,7 +3189,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40"/>
       <c r="B60" s="20" t="s">
         <v>126</v>
@@ -3201,7 +3209,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>36923</v>
       </c>
@@ -3227,7 +3235,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="20" t="s">
         <v>106</v>
@@ -3247,7 +3255,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40"/>
       <c r="B63" s="20" t="s">
         <v>106</v>
@@ -3267,7 +3275,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>36951</v>
       </c>
@@ -3291,7 +3299,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>36982</v>
       </c>
@@ -3317,7 +3325,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>37012</v>
       </c>
@@ -3337,7 +3345,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>37043</v>
       </c>
@@ -3357,7 +3365,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>37073</v>
       </c>
@@ -3377,7 +3385,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>37104</v>
       </c>
@@ -3397,7 +3405,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>37135</v>
       </c>
@@ -3421,7 +3429,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>37165</v>
       </c>
@@ -3441,7 +3449,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>37196</v>
       </c>
@@ -3461,7 +3469,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>37226</v>
       </c>
@@ -3485,7 +3493,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="48" t="s">
         <v>78</v>
       </c>
@@ -3507,7 +3515,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>37257</v>
       </c>
@@ -3531,7 +3539,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>37288</v>
       </c>
@@ -3551,7 +3559,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>37316</v>
       </c>
@@ -3575,7 +3583,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>37347</v>
       </c>
@@ -3601,7 +3609,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>37377</v>
       </c>
@@ -3627,7 +3635,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>37408</v>
       </c>
@@ -3647,7 +3655,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>37438</v>
       </c>
@@ -3667,7 +3675,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>37469</v>
       </c>
@@ -3691,7 +3699,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>37500</v>
       </c>
@@ -3711,7 +3719,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>37530</v>
       </c>
@@ -3737,7 +3745,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20" t="s">
         <v>143</v>
@@ -3759,7 +3767,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>37561</v>
       </c>
@@ -3779,7 +3787,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>37591</v>
       </c>
@@ -3803,7 +3811,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="48" t="s">
         <v>79</v>
       </c>
@@ -3825,7 +3833,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>37622</v>
       </c>
@@ -3845,7 +3853,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>37653</v>
       </c>
@@ -3865,7 +3873,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>37681</v>
       </c>
@@ -3885,7 +3893,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <v>37712</v>
       </c>
@@ -3905,7 +3913,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>37742</v>
       </c>
@@ -3925,7 +3933,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <v>37773</v>
       </c>
@@ -3945,7 +3953,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <v>37803</v>
       </c>
@@ -3965,7 +3973,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>37834</v>
       </c>
@@ -3985,7 +3993,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <v>37865</v>
       </c>
@@ -4005,7 +4013,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <v>37895</v>
       </c>
@@ -4025,7 +4033,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <v>37926</v>
       </c>
@@ -4045,7 +4053,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <v>37956</v>
       </c>
@@ -4069,7 +4077,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="48" t="s">
         <v>80</v>
       </c>
@@ -4091,7 +4099,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <v>37987</v>
       </c>
@@ -4111,7 +4119,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <v>38018</v>
       </c>
@@ -4135,7 +4143,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <v>38047</v>
       </c>
@@ -4161,7 +4169,7 @@
         <v>38265</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <v>38078</v>
       </c>
@@ -4181,7 +4189,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <v>38108</v>
       </c>
@@ -4201,7 +4209,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>38139</v>
       </c>
@@ -4221,7 +4229,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <v>38169</v>
       </c>
@@ -4247,7 +4255,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20" t="s">
         <v>69</v>
@@ -4269,7 +4277,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <v>38200</v>
       </c>
@@ -4295,7 +4303,7 @@
         <v>38115</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <v>38231</v>
       </c>
@@ -4315,7 +4323,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <v>38261</v>
       </c>
@@ -4335,7 +4343,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <v>38292</v>
       </c>
@@ -4359,7 +4367,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <v>38322</v>
       </c>
@@ -4383,7 +4391,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="48" t="s">
         <v>81</v>
       </c>
@@ -4405,7 +4413,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <v>38353</v>
       </c>
@@ -4429,7 +4437,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <v>38384</v>
       </c>
@@ -4453,7 +4461,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <v>38412</v>
       </c>
@@ -4473,7 +4481,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <v>38443</v>
       </c>
@@ -4497,7 +4505,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20" t="s">
         <v>152</v>
@@ -4517,7 +4525,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20" t="s">
         <v>99</v>
@@ -4539,7 +4547,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20" t="s">
         <v>99</v>
@@ -4561,7 +4569,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20" t="s">
         <v>131</v>
@@ -4583,7 +4591,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <v>38473</v>
       </c>
@@ -4603,7 +4611,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <v>38504</v>
       </c>
@@ -4627,7 +4635,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
         <v>38534</v>
       </c>
@@ -4651,7 +4659,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
         <v>38565</v>
       </c>
@@ -4675,7 +4683,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
         <v>38596</v>
       </c>
@@ -4695,7 +4703,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <v>38626</v>
       </c>
@@ -4721,7 +4729,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
         <v>38657</v>
       </c>
@@ -4741,7 +4749,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
         <v>38687</v>
       </c>
@@ -4761,7 +4769,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="48" t="s">
         <v>82</v>
       </c>
@@ -4783,7 +4791,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
         <v>38718</v>
       </c>
@@ -4807,7 +4815,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
         <v>38749</v>
       </c>
@@ -4833,7 +4841,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40"/>
       <c r="B135" s="20" t="s">
         <v>164</v>
@@ -4853,7 +4861,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
         <v>38777</v>
       </c>
@@ -4879,7 +4887,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40"/>
       <c r="B137" s="20" t="s">
         <v>166</v>
@@ -4899,7 +4907,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
         <v>38808</v>
       </c>
@@ -4919,7 +4927,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
         <v>38838</v>
       </c>
@@ -4943,7 +4951,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
         <v>38869</v>
       </c>
@@ -4967,7 +4975,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
         <v>38899</v>
       </c>
@@ -4991,7 +4999,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
         <v>38930</v>
       </c>
@@ -5015,7 +5023,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40"/>
       <c r="B143" s="20" t="s">
         <v>170</v>
@@ -5035,7 +5043,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
         <v>38961</v>
       </c>
@@ -5059,7 +5067,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40">
         <v>38991</v>
       </c>
@@ -5085,7 +5093,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40"/>
       <c r="B146" s="20" t="s">
         <v>173</v>
@@ -5105,7 +5113,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40">
         <v>39022</v>
       </c>
@@ -5131,7 +5139,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40"/>
       <c r="B148" s="20" t="s">
         <v>233</v>
@@ -5151,7 +5159,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40"/>
       <c r="B149" s="20" t="s">
         <v>102</v>
@@ -5171,7 +5179,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
         <v>39052</v>
       </c>
@@ -5191,7 +5199,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="48" t="s">
         <v>83</v>
       </c>
@@ -5213,7 +5221,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40">
         <v>39083</v>
       </c>
@@ -5239,7 +5247,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40">
         <v>39114</v>
       </c>
@@ -5263,7 +5271,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
         <v>39142</v>
       </c>
@@ -5287,7 +5295,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40">
         <v>39173</v>
       </c>
@@ -5311,7 +5319,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40">
         <v>39203</v>
       </c>
@@ -5331,7 +5339,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40">
         <v>39234</v>
       </c>
@@ -5351,7 +5359,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40">
         <v>39264</v>
       </c>
@@ -5371,7 +5379,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40">
         <v>39295</v>
       </c>
@@ -5397,7 +5405,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40"/>
       <c r="B160" s="20" t="s">
         <v>71</v>
@@ -5419,7 +5427,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40">
         <v>39326</v>
       </c>
@@ -5439,7 +5447,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40">
         <v>39356</v>
       </c>
@@ -5459,7 +5467,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40">
         <v>39387</v>
       </c>
@@ -5485,7 +5493,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40"/>
       <c r="B164" s="20" t="s">
         <v>119</v>
@@ -5507,7 +5515,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40"/>
       <c r="B165" s="20" t="s">
         <v>183</v>
@@ -5527,7 +5535,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40">
         <v>39417</v>
       </c>
@@ -5553,7 +5561,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40"/>
       <c r="B167" s="20" t="s">
         <v>124</v>
@@ -5573,7 +5581,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="48" t="s">
         <v>84</v>
       </c>
@@ -5595,7 +5603,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40">
         <v>39448</v>
       </c>
@@ -5621,7 +5629,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40"/>
       <c r="B170" s="20" t="s">
         <v>187</v>
@@ -5643,7 +5651,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40"/>
       <c r="B171" s="20" t="s">
         <v>190</v>
@@ -5663,7 +5671,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40">
         <v>39479</v>
       </c>
@@ -5687,7 +5695,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40">
         <v>39508</v>
       </c>
@@ -5711,7 +5719,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40">
         <v>39539</v>
       </c>
@@ -5737,7 +5745,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40"/>
       <c r="B175" s="20" t="s">
         <v>196</v>
@@ -5759,7 +5767,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40"/>
       <c r="B176" s="20" t="s">
         <v>193</v>
@@ -5779,7 +5787,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40">
         <v>39569</v>
       </c>
@@ -5799,7 +5807,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40">
         <v>39600</v>
       </c>
@@ -5823,7 +5831,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40">
         <v>39630</v>
       </c>
@@ -5847,7 +5855,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40">
         <v>39661</v>
       </c>
@@ -5871,7 +5879,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40">
         <v>39692</v>
       </c>
@@ -5895,7 +5903,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40">
         <v>39722</v>
       </c>
@@ -5919,7 +5927,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40">
         <v>39753</v>
       </c>
@@ -5943,7 +5951,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40">
         <v>39783</v>
       </c>
@@ -5967,7 +5975,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="48" t="s">
         <v>85</v>
       </c>
@@ -5989,7 +5997,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40">
         <v>39814</v>
       </c>
@@ -6015,7 +6023,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40"/>
       <c r="B187" s="20" t="s">
         <v>205</v>
@@ -6035,7 +6043,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40">
         <v>39845</v>
       </c>
@@ -6061,7 +6069,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40">
         <v>39873</v>
       </c>
@@ -6085,7 +6093,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40"/>
       <c r="B190" s="20" t="s">
         <v>208</v>
@@ -6105,7 +6113,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40"/>
       <c r="B191" s="20" t="s">
         <v>99</v>
@@ -6127,7 +6135,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40"/>
       <c r="B192" s="20" t="s">
         <v>210</v>
@@ -6147,7 +6155,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40">
         <v>39904</v>
       </c>
@@ -6171,7 +6179,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40">
         <v>39934</v>
       </c>
@@ -6197,7 +6205,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40"/>
       <c r="B195" s="20" t="s">
         <v>214</v>
@@ -6219,7 +6227,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40">
         <v>39965</v>
       </c>
@@ -6243,7 +6251,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40">
         <v>39995</v>
       </c>
@@ -6267,7 +6275,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40">
         <v>40026</v>
       </c>
@@ -6291,7 +6299,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40">
         <v>40057</v>
       </c>
@@ -6315,7 +6323,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40">
         <v>40087</v>
       </c>
@@ -6339,7 +6347,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40">
         <v>40118</v>
       </c>
@@ -6363,7 +6371,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40">
         <v>40148</v>
       </c>
@@ -6387,7 +6395,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="48" t="s">
         <v>86</v>
       </c>
@@ -6409,7 +6417,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40">
         <v>40179</v>
       </c>
@@ -6433,7 +6441,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40">
         <v>40210</v>
       </c>
@@ -6457,7 +6465,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40">
         <v>40238</v>
       </c>
@@ -6481,7 +6489,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40">
         <v>40269</v>
       </c>
@@ -6505,7 +6513,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40">
         <v>40299</v>
       </c>
@@ -6525,7 +6533,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40">
         <v>40330</v>
       </c>
@@ -6549,7 +6557,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40">
         <v>40360</v>
       </c>
@@ -6573,7 +6581,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40">
         <v>40391</v>
       </c>
@@ -6597,7 +6605,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40">
         <v>40422</v>
       </c>
@@ -6621,7 +6629,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40">
         <v>40452</v>
       </c>
@@ -6645,7 +6653,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40">
         <v>40483</v>
       </c>
@@ -6669,7 +6677,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40">
         <v>40513</v>
       </c>
@@ -6693,7 +6701,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40"/>
       <c r="B216" s="20" t="s">
         <v>225</v>
@@ -6713,7 +6721,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="48" t="s">
         <v>87</v>
       </c>
@@ -6735,7 +6743,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40">
         <v>40544</v>
       </c>
@@ -6759,7 +6767,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40">
         <v>40575</v>
       </c>
@@ -6783,7 +6791,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40">
         <v>40603</v>
       </c>
@@ -6807,7 +6815,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40">
         <v>40634</v>
       </c>
@@ -6833,7 +6841,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40"/>
       <c r="B222" s="20" t="s">
         <v>226</v>
@@ -6853,7 +6861,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40">
         <v>40664</v>
       </c>
@@ -6877,7 +6885,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40">
         <v>40695</v>
       </c>
@@ -6897,7 +6905,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40">
         <v>40725</v>
       </c>
@@ -6917,7 +6925,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40">
         <v>40756</v>
       </c>
@@ -6937,7 +6945,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40">
         <v>40787</v>
       </c>
@@ -6963,7 +6971,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40"/>
       <c r="B228" s="20" t="s">
         <v>227</v>
@@ -6985,7 +6993,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40">
         <v>40817</v>
       </c>
@@ -7005,7 +7013,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40">
         <v>40848</v>
       </c>
@@ -7029,7 +7037,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40">
         <v>40878</v>
       </c>
@@ -7053,7 +7061,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="48" t="s">
         <v>88</v>
       </c>
@@ -7075,7 +7083,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40">
         <v>40909</v>
       </c>
@@ -7095,7 +7103,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40">
         <v>40940</v>
       </c>
@@ -7115,7 +7123,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40">
         <v>40969</v>
       </c>
@@ -7135,7 +7143,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40">
         <v>41000</v>
       </c>
@@ -7155,7 +7163,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40">
         <v>41030</v>
       </c>
@@ -7175,7 +7183,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40">
         <v>41061</v>
       </c>
@@ -7201,7 +7209,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40"/>
       <c r="B239" s="20" t="s">
         <v>96</v>
@@ -7223,7 +7231,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40">
         <v>41091</v>
       </c>
@@ -7249,7 +7257,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40"/>
       <c r="B241" s="20" t="s">
         <v>99</v>
@@ -7269,7 +7277,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40">
         <v>41122</v>
       </c>
@@ -7289,7 +7297,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40">
         <v>41153</v>
       </c>
@@ -7309,7 +7317,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40">
         <v>41183</v>
       </c>
@@ -7329,7 +7337,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40">
         <v>41214</v>
       </c>
@@ -7349,7 +7357,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40">
         <v>41244</v>
       </c>
@@ -7369,7 +7377,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="48" t="s">
         <v>89</v>
       </c>
@@ -7391,7 +7399,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40">
         <v>41275</v>
       </c>
@@ -7411,7 +7419,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40">
         <v>41306</v>
       </c>
@@ -7431,7 +7439,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40">
         <v>41334</v>
       </c>
@@ -7455,7 +7463,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40">
         <v>41365</v>
       </c>
@@ -7481,7 +7489,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40">
         <v>41395</v>
       </c>
@@ -7501,7 +7509,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40">
         <v>41426</v>
       </c>
@@ -7525,7 +7533,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40">
         <v>41456</v>
       </c>
@@ -7549,7 +7557,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40">
         <v>41487</v>
       </c>
@@ -7573,7 +7581,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40">
         <v>41518</v>
       </c>
@@ -7593,7 +7601,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40">
         <v>41548</v>
       </c>
@@ -7617,7 +7625,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40">
         <v>41579</v>
       </c>
@@ -7637,7 +7645,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40">
         <v>41609</v>
       </c>
@@ -7661,7 +7669,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="48" t="s">
         <v>90</v>
       </c>
@@ -7683,7 +7691,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40">
         <v>41640</v>
       </c>
@@ -7703,7 +7711,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40">
         <v>41671</v>
       </c>
@@ -7723,7 +7731,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40">
         <v>41699</v>
       </c>
@@ -7743,7 +7751,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40">
         <v>41730</v>
       </c>
@@ -7767,7 +7775,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40">
         <v>41760</v>
       </c>
@@ -7787,7 +7795,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40">
         <v>41791</v>
       </c>
@@ -7807,7 +7815,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40">
         <v>41821</v>
       </c>
@@ -7831,7 +7839,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40"/>
       <c r="B268" s="20" t="s">
         <v>106</v>
@@ -7851,7 +7859,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40"/>
       <c r="B269" s="20" t="s">
         <v>243</v>
@@ -7871,7 +7879,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40">
         <v>41852</v>
       </c>
@@ -7895,7 +7903,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40">
         <v>41883</v>
       </c>
@@ -7921,7 +7929,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40">
         <v>41913</v>
       </c>
@@ -7941,7 +7949,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40">
         <v>41944</v>
       </c>
@@ -7961,7 +7969,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40">
         <v>41974</v>
       </c>
@@ -7985,7 +7993,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40"/>
       <c r="B275" s="20" t="s">
         <v>248</v>
@@ -8005,7 +8013,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="48" t="s">
         <v>91</v>
       </c>
@@ -8027,7 +8035,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40">
         <v>42005</v>
       </c>
@@ -8051,7 +8059,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40">
         <v>42036</v>
       </c>
@@ -8075,7 +8083,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40">
         <v>42064</v>
       </c>
@@ -8101,7 +8109,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40"/>
       <c r="B280" s="20" t="s">
         <v>252</v>
@@ -8121,7 +8129,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40">
         <v>42095</v>
       </c>
@@ -8145,7 +8153,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40">
         <v>42125</v>
       </c>
@@ -8169,7 +8177,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40">
         <v>42156</v>
       </c>
@@ -8193,7 +8201,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40">
         <v>42186</v>
       </c>
@@ -8213,7 +8221,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40">
         <v>42217</v>
       </c>
@@ -8237,7 +8245,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40">
         <v>42248</v>
       </c>
@@ -8261,7 +8269,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40">
         <v>42278</v>
       </c>
@@ -8285,7 +8293,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40">
         <v>42309</v>
       </c>
@@ -8305,7 +8313,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40">
         <v>42339</v>
       </c>
@@ -8325,7 +8333,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="48" t="s">
         <v>92</v>
       </c>
@@ -8347,7 +8355,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40">
         <v>42370</v>
       </c>
@@ -8367,7 +8375,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40">
         <v>42401</v>
       </c>
@@ -8393,7 +8401,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40">
         <v>42430</v>
       </c>
@@ -8417,7 +8425,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40">
         <v>42461</v>
       </c>
@@ -8437,7 +8445,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40">
         <v>42491</v>
       </c>
@@ -8463,7 +8471,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40">
         <v>42522</v>
       </c>
@@ -8487,7 +8495,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40"/>
       <c r="B297" s="20" t="s">
         <v>106</v>
@@ -8507,7 +8515,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40"/>
       <c r="B298" s="20" t="s">
         <v>262</v>
@@ -8527,7 +8535,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40">
         <v>42552</v>
       </c>
@@ -8547,7 +8555,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40">
         <v>42583</v>
       </c>
@@ -8567,7 +8575,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40">
         <v>42614</v>
       </c>
@@ -8587,7 +8595,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40">
         <v>42644</v>
       </c>
@@ -8607,7 +8615,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40">
         <v>42675</v>
       </c>
@@ -8627,7 +8635,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40">
         <v>42705</v>
       </c>
@@ -8647,7 +8655,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="48" t="s">
         <v>93</v>
       </c>
@@ -8669,7 +8677,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40">
         <v>42736</v>
       </c>
@@ -8689,7 +8697,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40">
         <v>42767</v>
       </c>
@@ -8709,7 +8717,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40">
         <v>42795</v>
       </c>
@@ -8729,7 +8737,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40">
         <v>42826</v>
       </c>
@@ -8749,7 +8757,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40">
         <v>42856</v>
       </c>
@@ -8769,7 +8777,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40">
         <v>42887</v>
       </c>
@@ -8789,7 +8797,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40">
         <v>42917</v>
       </c>
@@ -8809,7 +8817,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40">
         <v>42948</v>
       </c>
@@ -8829,7 +8837,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40">
         <v>42979</v>
       </c>
@@ -8849,7 +8857,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40">
         <v>43009</v>
       </c>
@@ -8869,7 +8877,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40">
         <v>43040</v>
       </c>
@@ -8895,7 +8903,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40"/>
       <c r="B317" s="20" t="s">
         <v>71</v>
@@ -8917,7 +8925,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40">
         <v>43070</v>
       </c>
@@ -8937,7 +8945,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="48" t="s">
         <v>43</v>
       </c>
@@ -8955,7 +8963,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40">
         <v>43101</v>
       </c>
@@ -8975,7 +8983,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40">
         <v>43132</v>
       </c>
@@ -8995,7 +9003,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40">
         <v>43160</v>
       </c>
@@ -9015,7 +9023,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40">
         <v>43191</v>
       </c>
@@ -9035,7 +9043,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="41">
         <v>43221</v>
       </c>
@@ -9055,7 +9063,7 @@
       <c r="J324" s="12"/>
       <c r="K324" s="15"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40">
         <v>43252</v>
       </c>
@@ -9075,7 +9083,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40">
         <v>43282</v>
       </c>
@@ -9099,7 +9107,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40">
         <v>43313</v>
       </c>
@@ -9119,7 +9127,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40">
         <v>43344</v>
       </c>
@@ -9139,7 +9147,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40">
         <v>43374</v>
       </c>
@@ -9159,7 +9167,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40">
         <v>43405</v>
       </c>
@@ -9179,7 +9187,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40">
         <v>43435</v>
       </c>
@@ -9203,7 +9211,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="48" t="s">
         <v>47</v>
       </c>
@@ -9221,7 +9229,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40">
         <v>43466</v>
       </c>
@@ -9241,7 +9249,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40">
         <v>43497</v>
       </c>
@@ -9261,7 +9269,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40">
         <v>43525</v>
       </c>
@@ -9281,7 +9289,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40">
         <v>43556</v>
       </c>
@@ -9301,7 +9309,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40">
         <v>43586</v>
       </c>
@@ -9321,7 +9329,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40">
         <v>43617</v>
       </c>
@@ -9341,7 +9349,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40">
         <v>43647</v>
       </c>
@@ -9365,7 +9373,7 @@
         <v>43653</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40"/>
       <c r="B340" s="20" t="s">
         <v>44</v>
@@ -9385,7 +9393,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40"/>
       <c r="B341" s="20" t="s">
         <v>44</v>
@@ -9405,7 +9413,7 @@
         <v>43716</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40">
         <v>43678</v>
       </c>
@@ -9431,7 +9439,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40"/>
       <c r="B343" s="20" t="s">
         <v>50</v>
@@ -9453,7 +9461,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40"/>
       <c r="B344" s="20" t="s">
         <v>50</v>
@@ -9475,7 +9483,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40">
         <v>43709</v>
       </c>
@@ -9495,7 +9503,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40">
         <v>43739</v>
       </c>
@@ -9515,7 +9523,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40">
         <v>43770</v>
       </c>
@@ -9535,7 +9543,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40">
         <v>43800</v>
       </c>
@@ -9555,7 +9563,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="48" t="s">
         <v>54</v>
       </c>
@@ -9573,7 +9581,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40">
         <v>43831</v>
       </c>
@@ -9595,7 +9603,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40">
         <v>43862</v>
       </c>
@@ -9617,7 +9625,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40">
         <v>43891</v>
       </c>
@@ -9637,7 +9645,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40">
         <v>43922</v>
       </c>
@@ -9657,7 +9665,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40">
         <v>43952</v>
       </c>
@@ -9683,7 +9691,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40">
         <v>43983</v>
       </c>
@@ -9705,7 +9713,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40">
         <v>44013</v>
       </c>
@@ -9727,7 +9735,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40">
         <v>44044</v>
       </c>
@@ -9747,7 +9755,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40">
         <v>44075</v>
       </c>
@@ -9767,7 +9775,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40">
         <v>44105</v>
       </c>
@@ -9787,7 +9795,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40">
         <v>44136</v>
       </c>
@@ -9807,7 +9815,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40">
         <v>44166</v>
       </c>
@@ -9831,7 +9839,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="48" t="s">
         <v>60</v>
       </c>
@@ -9849,7 +9857,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40">
         <v>44197</v>
       </c>
@@ -9869,7 +9877,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40">
         <v>44228</v>
       </c>
@@ -9889,7 +9897,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40">
         <v>44256</v>
       </c>
@@ -9909,7 +9917,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40">
         <v>44287</v>
       </c>
@@ -9929,7 +9937,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40">
         <v>44317</v>
       </c>
@@ -9949,7 +9957,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40">
         <v>44348</v>
       </c>
@@ -9969,7 +9977,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40">
         <v>44378</v>
       </c>
@@ -9995,7 +10003,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40"/>
       <c r="B370" s="20" t="s">
         <v>44</v>
@@ -10017,7 +10025,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40"/>
       <c r="B371" s="20" t="s">
         <v>44</v>
@@ -10039,7 +10047,7 @@
         <v>44447</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40">
         <v>44409</v>
       </c>
@@ -10059,7 +10067,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40">
         <v>44440</v>
       </c>
@@ -10079,7 +10087,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40">
         <v>44470</v>
       </c>
@@ -10099,7 +10107,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40">
         <v>44501</v>
       </c>
@@ -10119,7 +10127,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40">
         <v>44531</v>
       </c>
@@ -10139,7 +10147,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="48" t="s">
         <v>64</v>
       </c>
@@ -10157,7 +10165,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40">
         <v>44562</v>
       </c>
@@ -10177,7 +10185,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40">
         <v>44593</v>
       </c>
@@ -10197,7 +10205,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40">
         <v>44621</v>
       </c>
@@ -10217,7 +10225,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40">
         <v>44652</v>
       </c>
@@ -10237,7 +10245,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40">
         <v>44682</v>
       </c>
@@ -10257,7 +10265,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40">
         <v>44713</v>
       </c>
@@ -10277,7 +10285,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40">
         <v>44743</v>
       </c>
@@ -10297,7 +10305,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40">
         <v>44774</v>
       </c>
@@ -10317,7 +10325,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40">
         <v>44805</v>
       </c>
@@ -10337,7 +10345,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40">
         <v>44835</v>
       </c>
@@ -10363,7 +10371,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40">
         <v>44866</v>
       </c>
@@ -10389,7 +10397,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40"/>
       <c r="B389" s="20" t="s">
         <v>69</v>
@@ -10411,7 +10419,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40"/>
       <c r="B390" s="20" t="s">
         <v>71</v>
@@ -10433,7 +10441,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40">
         <v>44896</v>
       </c>
@@ -10453,7 +10461,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="48" t="s">
         <v>67</v>
       </c>
@@ -10471,7 +10479,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40">
         <v>44927</v>
       </c>
@@ -10491,7 +10499,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40">
         <v>44958</v>
       </c>
@@ -10511,7 +10519,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40">
         <v>44986</v>
       </c>
@@ -10531,7 +10539,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40">
         <v>45017</v>
       </c>
@@ -10551,7 +10559,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40">
         <v>45047</v>
       </c>
@@ -10573,9 +10581,11 @@
         <v>272</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40"/>
-      <c r="B398" s="20"/>
+      <c r="B398" s="20" t="s">
+        <v>140</v>
+      </c>
       <c r="C398" s="13"/>
       <c r="D398" s="39"/>
       <c r="E398" s="9"/>
@@ -10584,14 +10594,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H398" s="39"/>
+      <c r="H398" s="39">
+        <v>6</v>
+      </c>
       <c r="I398" s="9"/>
       <c r="J398" s="11"/>
-      <c r="K398" s="20"/>
-    </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K398" s="20" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40"/>
-      <c r="B399" s="20"/>
+      <c r="B399" s="20" t="s">
+        <v>274</v>
+      </c>
       <c r="C399" s="13"/>
       <c r="D399" s="39"/>
       <c r="E399" s="9"/>
@@ -10600,12 +10616,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H399" s="39"/>
+      <c r="H399" s="39">
+        <v>10</v>
+      </c>
       <c r="I399" s="9"/>
       <c r="J399" s="11"/>
-      <c r="K399" s="20"/>
-    </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K399" s="20" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40"/>
       <c r="B400" s="20"/>
       <c r="C400" s="13"/>
@@ -10621,7 +10641,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40"/>
       <c r="B401" s="20"/>
       <c r="C401" s="13"/>
@@ -10637,7 +10657,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40"/>
       <c r="B402" s="20"/>
       <c r="C402" s="13"/>
@@ -10653,7 +10673,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40"/>
       <c r="B403" s="20"/>
       <c r="C403" s="13"/>
@@ -10669,7 +10689,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40"/>
       <c r="B404" s="20"/>
       <c r="C404" s="13"/>
@@ -10685,7 +10705,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40"/>
       <c r="B405" s="20"/>
       <c r="C405" s="13"/>
@@ -10701,7 +10721,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40"/>
       <c r="B406" s="20"/>
       <c r="C406" s="13"/>
@@ -10717,7 +10737,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40"/>
       <c r="B407" s="20"/>
       <c r="C407" s="13"/>
@@ -10733,7 +10753,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40"/>
       <c r="B408" s="20"/>
       <c r="C408" s="13"/>
@@ -10749,7 +10769,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40"/>
       <c r="B409" s="20"/>
       <c r="C409" s="13"/>
@@ -10765,7 +10785,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40"/>
       <c r="B410" s="20"/>
       <c r="C410" s="13"/>
@@ -10781,7 +10801,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40"/>
       <c r="B411" s="20"/>
       <c r="C411" s="13"/>
@@ -10797,7 +10817,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40"/>
       <c r="B412" s="20"/>
       <c r="C412" s="13"/>
@@ -10813,7 +10833,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40"/>
       <c r="B413" s="20"/>
       <c r="C413" s="13"/>
@@ -10829,7 +10849,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40"/>
       <c r="B414" s="20"/>
       <c r="C414" s="13"/>
@@ -10845,7 +10865,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40"/>
       <c r="B415" s="20"/>
       <c r="C415" s="13"/>
@@ -10861,7 +10881,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40"/>
       <c r="B416" s="20"/>
       <c r="C416" s="13"/>
@@ -10877,7 +10897,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40"/>
       <c r="B417" s="20"/>
       <c r="C417" s="13"/>
@@ -10893,7 +10913,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40"/>
       <c r="B418" s="20"/>
       <c r="C418" s="13"/>
@@ -10909,7 +10929,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40"/>
       <c r="B419" s="20"/>
       <c r="C419" s="13"/>
@@ -10925,7 +10945,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40"/>
       <c r="B420" s="20"/>
       <c r="C420" s="13"/>
@@ -10941,7 +10961,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40"/>
       <c r="B421" s="20"/>
       <c r="C421" s="13"/>
@@ -10957,7 +10977,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40"/>
       <c r="B422" s="20"/>
       <c r="C422" s="13"/>
@@ -10973,7 +10993,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40"/>
       <c r="B423" s="20"/>
       <c r="C423" s="13"/>
@@ -10989,7 +11009,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40"/>
       <c r="B424" s="20"/>
       <c r="C424" s="13"/>
@@ -11005,7 +11025,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40"/>
       <c r="B425" s="20"/>
       <c r="C425" s="13"/>
@@ -11021,7 +11041,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40"/>
       <c r="B426" s="20"/>
       <c r="C426" s="13"/>
@@ -11037,7 +11057,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40"/>
       <c r="B427" s="20"/>
       <c r="C427" s="13"/>
@@ -11053,7 +11073,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40"/>
       <c r="B428" s="20"/>
       <c r="C428" s="13"/>
@@ -11069,7 +11089,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40"/>
       <c r="B429" s="20"/>
       <c r="C429" s="13"/>
@@ -11085,7 +11105,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40"/>
       <c r="B430" s="20"/>
       <c r="C430" s="13"/>
@@ -11101,7 +11121,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40"/>
       <c r="B431" s="20"/>
       <c r="C431" s="13"/>
@@ -11117,7 +11137,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40"/>
       <c r="B432" s="20"/>
       <c r="C432" s="13"/>
@@ -11133,7 +11153,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40"/>
       <c r="B433" s="20"/>
       <c r="C433" s="13"/>
@@ -11149,7 +11169,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40"/>
       <c r="B434" s="20"/>
       <c r="C434" s="13"/>
@@ -11165,7 +11185,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40"/>
       <c r="B435" s="20"/>
       <c r="C435" s="13"/>
@@ -11181,7 +11201,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40"/>
       <c r="B436" s="20"/>
       <c r="C436" s="13"/>
@@ -11197,7 +11217,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40"/>
       <c r="B437" s="20"/>
       <c r="C437" s="13"/>
@@ -11213,7 +11233,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40"/>
       <c r="B438" s="20"/>
       <c r="C438" s="13"/>
@@ -11229,7 +11249,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="40"/>
       <c r="B439" s="20"/>
       <c r="C439" s="13"/>
@@ -11245,21 +11265,37 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A440" s="41"/>
-      <c r="B440" s="15"/>
-      <c r="C440" s="42"/>
-      <c r="D440" s="43"/>
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A440" s="40"/>
+      <c r="B440" s="20"/>
+      <c r="C440" s="13"/>
+      <c r="D440" s="39"/>
       <c r="E440" s="9"/>
-      <c r="F440" s="15"/>
-      <c r="G440" s="42" t="str">
+      <c r="F440" s="20"/>
+      <c r="G440" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H440" s="43"/>
+      <c r="H440" s="39"/>
       <c r="I440" s="9"/>
-      <c r="J440" s="12"/>
-      <c r="K440" s="15"/>
+      <c r="J440" s="11"/>
+      <c r="K440" s="20"/>
+    </row>
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A441" s="41"/>
+      <c r="B441" s="15"/>
+      <c r="C441" s="42"/>
+      <c r="D441" s="43"/>
+      <c r="E441" s="9"/>
+      <c r="F441" s="15"/>
+      <c r="G441" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H441" s="43"/>
+      <c r="I441" s="9"/>
+      <c r="J441" s="12"/>
+      <c r="K441" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -11276,10 +11312,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -11302,28 +11338,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -11336,7 +11372,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -11365,7 +11401,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>34.375</v>
       </c>
@@ -11395,17 +11431,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>273</v>
       </c>
@@ -11429,10 +11465,10 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>300.47399999999993</v>
+        <v>284.47399999999993</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
@@ -11460,7 +11496,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -11486,7 +11522,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -11512,7 +11548,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -11538,7 +11574,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -11564,7 +11600,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -11590,7 +11626,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -11616,7 +11652,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -11642,7 +11678,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -11662,7 +11698,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -11682,7 +11718,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -11702,7 +11738,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -11723,7 +11759,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -11744,7 +11780,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -11765,7 +11801,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -11786,7 +11822,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -11807,7 +11843,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -11828,7 +11864,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -11849,7 +11885,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -11870,7 +11906,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -11891,7 +11927,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -11912,7 +11948,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -11933,7 +11969,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -11954,7 +11990,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -11975,7 +12011,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -11996,7 +12032,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -12017,7 +12053,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -12038,7 +12074,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -12059,7 +12095,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -12080,7 +12116,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -12101,7 +12137,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -12122,7 +12158,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -12131,7 +12167,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -12140,7 +12176,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -12149,7 +12185,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -12158,7 +12194,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -12167,7 +12203,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -12176,7 +12212,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -12185,7 +12221,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -12194,7 +12230,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -12203,7 +12239,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -12212,7 +12248,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -12221,7 +12257,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -12230,7 +12266,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -12239,7 +12275,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -12248,7 +12284,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -12257,7 +12293,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -12266,7 +12302,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -12275,7 +12311,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -12284,7 +12320,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -12293,7 +12329,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -12302,7 +12338,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -12311,7 +12347,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -12320,7 +12356,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -12329,7 +12365,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -12338,7 +12374,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -12347,7 +12383,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -12356,7 +12392,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -12365,7 +12401,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -12374,7 +12410,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -12383,7 +12419,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
